--- a/WS3_s.xlsx
+++ b/WS3_s.xlsx
@@ -930,28 +930,29 @@
   </sheetPr>
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24"/>
@@ -960,7 +961,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="25.29"/>
@@ -1036,7 +1037,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1048,9 +1049,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="6" t="n">
-        <v>45315</v>
-      </c>
+      <c r="L4" s="6"/>
       <c r="M4" s="7" t="s">
         <v>1</v>
       </c>
